--- a/core/1.2.0/ValueSet-KLThemesFFB.xlsx
+++ b/core/1.2.0/ValueSet-KLThemesFFB.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T16:28:58+02:00</t>
+    <t>2023-06-07T17:47:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
